--- a/data/trans_dic/P1402-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1402-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02100735071749332</v>
+        <v>0.02335853337718621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04618778643317051</v>
+        <v>0.04478659663045784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04485582422357637</v>
+        <v>0.04661072294269873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08260414797295824</v>
+        <v>0.08526721260194881</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01983885571645305</v>
+        <v>0.02135811279717545</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03997969323191133</v>
+        <v>0.03986373514775481</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03022162641152921</v>
+        <v>0.02985908549767679</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05746784712265705</v>
+        <v>0.05853464767392277</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0255596757320234</v>
+        <v>0.02709743913458383</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04637046034130846</v>
+        <v>0.0477834607119851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04460440298468843</v>
+        <v>0.04505678461928454</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07754275513547247</v>
+        <v>0.07719754821635713</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07083923859101944</v>
+        <v>0.06848615243374204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.111801205064388</v>
+        <v>0.1073455016890424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1063168601385174</v>
+        <v>0.1091089824033167</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1475147392431051</v>
+        <v>0.1472312674961106</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06956776325045352</v>
+        <v>0.07677461085428852</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1002577254117905</v>
+        <v>0.09997574702630432</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08571909684714715</v>
+        <v>0.08333908881623231</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1015846310857583</v>
+        <v>0.1013946503976609</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0591127254980668</v>
+        <v>0.06056833679354226</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09216767323991737</v>
+        <v>0.093578832288039</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08550212676248486</v>
+        <v>0.08682365810185266</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1140496662008267</v>
+        <v>0.1150926471807246</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1076956644978689</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08276227585110005</v>
+        <v>0.08276227585110006</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06956197715160976</v>
@@ -833,7 +833,7 @@
         <v>0.09239465302144359</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08129754919338267</v>
+        <v>0.08129754919338268</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03359536975060429</v>
+        <v>0.0338955422058647</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04872569207172787</v>
+        <v>0.05068175831378625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05440752700889639</v>
+        <v>0.05489457932223139</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05634520505065957</v>
+        <v>0.05788527395961703</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06418489074829828</v>
+        <v>0.06430034022802458</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08304614621117086</v>
+        <v>0.0857253134236212</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08422437974357745</v>
+        <v>0.08144987829726567</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0647360310409642</v>
+        <v>0.06657548527041686</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05494022821758246</v>
+        <v>0.05468968905602715</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07232369002905971</v>
+        <v>0.07307782002500737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07548674255973632</v>
+        <v>0.07606654672897825</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06758830291013135</v>
+        <v>0.06605798208637968</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07561049195198863</v>
+        <v>0.07736525875828204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09779510810775775</v>
+        <v>0.09867444504555356</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1018526767144083</v>
+        <v>0.1026917313553485</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1061133651343834</v>
+        <v>0.1092849524706953</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1182891408018572</v>
+        <v>0.1159586953237955</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.140793690625758</v>
+        <v>0.1425135180569292</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1371246253209838</v>
+        <v>0.1374657566361375</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1020703375245949</v>
+        <v>0.1059340114085986</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08902711421936225</v>
+        <v>0.08608936115744721</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1091546314599997</v>
+        <v>0.111989877545587</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1115395752935996</v>
+        <v>0.1118299947784208</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09770720881304644</v>
+        <v>0.09772446564279276</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05960702336187398</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09924269266147397</v>
+        <v>0.09924269266147399</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03568316070145754</v>
+        <v>0.03370811105201307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06869685346395306</v>
+        <v>0.07056321244761048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02686919026031889</v>
+        <v>0.02820773633450523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08197817020310055</v>
+        <v>0.08209005777812947</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04506994079467081</v>
+        <v>0.04573260558620904</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07188028127862368</v>
+        <v>0.07250501641430443</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0465083500852296</v>
+        <v>0.04871041347155967</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07088499814013524</v>
+        <v>0.07252301938834292</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04710233515972476</v>
+        <v>0.04624969767660026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08058013699068114</v>
+        <v>0.08022619605312713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04190837153971437</v>
+        <v>0.04399101437483301</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08179682521495593</v>
+        <v>0.08178381913269402</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08591187091805207</v>
+        <v>0.08519475751066118</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1362311129472883</v>
+        <v>0.1402220457309115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0698667198093287</v>
+        <v>0.07210665423417342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1361937721537847</v>
+        <v>0.1384108884771257</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09837213935968762</v>
+        <v>0.1016172147553419</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1395208217845901</v>
+        <v>0.1418231193937496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1070082228224301</v>
+        <v>0.1047325925349139</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1163171672753578</v>
+        <v>0.1202489576170381</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08480380553000873</v>
+        <v>0.08239055836345879</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.128105354186982</v>
+        <v>0.1299040213730189</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07733186694314235</v>
+        <v>0.08076683314539115</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1180583229106082</v>
+        <v>0.1183395961480544</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1202888684250468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08799101012230867</v>
+        <v>0.08799101012230866</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05450441877101057</v>
@@ -1093,7 +1093,7 @@
         <v>0.06783269130385304</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06918957084617407</v>
+        <v>0.06918957084617408</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05029946305852007</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02809128251074473</v>
+        <v>0.02734837748067111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03911518174107373</v>
+        <v>0.04178699673541238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08814586899319038</v>
+        <v>0.0896044735606356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06435423120400287</v>
+        <v>0.0624598057606915</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03395127606346893</v>
+        <v>0.0351821722482558</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06031927897360844</v>
+        <v>0.05907199262037163</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04497110203828854</v>
+        <v>0.04344247945989676</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05254813192135907</v>
+        <v>0.05224499481973689</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03619659305395699</v>
+        <v>0.036132537468627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0565787598117261</v>
+        <v>0.05747619112690679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07275178851826854</v>
+        <v>0.07462308592832834</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06343402002641277</v>
+        <v>0.06158827841523488</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07165395655167545</v>
+        <v>0.06915836875088228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09083312787999019</v>
+        <v>0.08986949296844958</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1578966873288138</v>
+        <v>0.1549880132323196</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1240131746737682</v>
+        <v>0.1194978473202174</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08016370451456728</v>
+        <v>0.07977163954270745</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1187663348449972</v>
+        <v>0.1172498392398484</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09632098166322954</v>
+        <v>0.09726443154042327</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08794538813893486</v>
+        <v>0.08824309473250336</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06577338572810444</v>
+        <v>0.06605222066469925</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09762230208091724</v>
+        <v>0.09525587917598993</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1161428436251966</v>
+        <v>0.115667130007535</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0952492856568856</v>
+        <v>0.09498582027883604</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03038248990503969</v>
+        <v>0.03038007265550592</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05471272750454261</v>
+        <v>0.05780613541202125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0372724956115619</v>
+        <v>0.03455066486941842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05522925983652455</v>
+        <v>0.0568356880712107</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05874722459170852</v>
+        <v>0.06229911732110652</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08605630312160358</v>
+        <v>0.08892265645202907</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05651769086007775</v>
+        <v>0.05419856219412435</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09906695676271277</v>
+        <v>0.1007573503282736</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05321302706069659</v>
+        <v>0.05297463673247351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0811628781886591</v>
+        <v>0.08311687705235893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05518448109528849</v>
+        <v>0.05383981404210591</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08618291615475904</v>
+        <v>0.08485945924146847</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0893167544254001</v>
+        <v>0.09173975083656405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1374853524110579</v>
+        <v>0.1404042073697805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.101874805055864</v>
+        <v>0.0993240422456461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1131908886870019</v>
+        <v>0.1136753084599865</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1455122931822729</v>
+        <v>0.1498844378624801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1796730862746962</v>
+        <v>0.1769203624108918</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1362058748156949</v>
+        <v>0.1355734759179164</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1590229762764523</v>
+        <v>0.1562450029694926</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1110464047271859</v>
+        <v>0.104225003996077</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.143330858504911</v>
+        <v>0.1404865952793159</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1079736005540802</v>
+        <v>0.1058326628581508</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1264204637198133</v>
+        <v>0.1272211980382751</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02907780634230447</v>
+        <v>0.02800990739839684</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04831773544826233</v>
+        <v>0.0474132382264424</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0440571846631239</v>
+        <v>0.04268371740934491</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1088126441076394</v>
+        <v>0.1111892130091584</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02240345563009214</v>
+        <v>0.02199596921894727</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06851078453176009</v>
+        <v>0.07077135706818642</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04334437199383523</v>
+        <v>0.04472700178813339</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07917959432157778</v>
+        <v>0.07821372970036114</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03135469422903941</v>
+        <v>0.03043076635120967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06525063952351823</v>
+        <v>0.06591499535300857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04890917203173935</v>
+        <v>0.05092932808879613</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1021989240291976</v>
+        <v>0.1019740735336719</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08477620408786167</v>
+        <v>0.07882399671611773</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1102925679869757</v>
+        <v>0.1129041333175111</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1025831122179705</v>
+        <v>0.1053828084182365</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1730389104687269</v>
+        <v>0.1764058750954497</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07159110614254621</v>
+        <v>0.07309551042281916</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1399998125029328</v>
+        <v>0.1520166863279716</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1090026037315977</v>
+        <v>0.1135991071868014</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1312908858975574</v>
+        <v>0.1308161196091769</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0666756747079179</v>
+        <v>0.06548632190961821</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1135264121538933</v>
+        <v>0.1176048787387924</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09350699594018172</v>
+        <v>0.09350687126773358</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1406054790166696</v>
+        <v>0.1435639868862622</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.08792268835954584</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.06647185489734271</v>
+        <v>0.06647185489734268</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.07044361439106725</v>
@@ -1513,7 +1513,7 @@
         <v>0.1001985520025331</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08044740275694989</v>
+        <v>0.08044740275694991</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04624416567090699</v>
+        <v>0.04785567161826654</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06227103575115847</v>
+        <v>0.06026285806119333</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08864297037809848</v>
+        <v>0.09183648428371897</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07373267519013818</v>
+        <v>0.0756722802948222</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05606026819673156</v>
+        <v>0.05755878097307446</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06484138182692167</v>
+        <v>0.06488133674663611</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06368922743547152</v>
+        <v>0.06565137070492211</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0504231458824606</v>
+        <v>0.05318672780654893</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05730043404127334</v>
+        <v>0.05811422245906288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06917713951905548</v>
+        <v>0.06815401293350426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08468473188436475</v>
+        <v>0.08339814746105868</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06823605754966779</v>
+        <v>0.06738290680993998</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08568843796694361</v>
+        <v>0.08607908857961398</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1072297738869148</v>
+        <v>0.1071578815726037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1391293128347932</v>
+        <v>0.1434463226377393</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1189464835430695</v>
+        <v>0.1225127252165564</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0983604849839525</v>
+        <v>0.09630196611325488</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1075058949485501</v>
+        <v>0.1108467183900093</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1135537766901039</v>
+        <v>0.1135293586664757</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07977624218547207</v>
+        <v>0.08234106205863698</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08664261427524032</v>
+        <v>0.08664796439142564</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1005318264488266</v>
+        <v>0.100414244109067</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1181121375096224</v>
+        <v>0.1182836328388793</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09442964613755526</v>
+        <v>0.09364893148742311</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.0944893347844242</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.07683086226890642</v>
+        <v>0.07683086226890641</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.06589979129498429</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05053305243796396</v>
+        <v>0.05017802755513708</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04639658419808031</v>
+        <v>0.04727117641424191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07424415552833878</v>
+        <v>0.07593741740082301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06178437929362654</v>
+        <v>0.06176307038939401</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04919168153912187</v>
+        <v>0.04875541260562942</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04352294298009323</v>
+        <v>0.04308839031246486</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06834218365303435</v>
+        <v>0.06988285381641555</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05104528009976485</v>
+        <v>0.05069732561071825</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05492873888795323</v>
+        <v>0.05418246366246009</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04957825823540964</v>
+        <v>0.0492347129472866</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07814416509219145</v>
+        <v>0.07810956573127698</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06021752199393952</v>
+        <v>0.0601516403670098</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08599521240224017</v>
+        <v>0.08595735077429134</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08232270534597144</v>
+        <v>0.08626356380117713</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1174092081671632</v>
+        <v>0.1181573006517102</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09504866988902892</v>
+        <v>0.0973464375109144</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08619538488883645</v>
+        <v>0.08540511172358919</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07687865394729175</v>
+        <v>0.07757390307640351</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1121555801512021</v>
+        <v>0.1153727441913889</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07908525052435128</v>
+        <v>0.07704480977501994</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08130043320647516</v>
+        <v>0.08005983518088333</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07579888397515212</v>
+        <v>0.07444124573642813</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1086797126009397</v>
+        <v>0.1077035019267117</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08156543077419263</v>
+        <v>0.08090471426097402</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.08384128023455691</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.07821262707958804</v>
+        <v>0.07821262707958802</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.06230946674902334</v>
@@ -1785,7 +1785,7 @@
         <v>0.08573340175995259</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.08544409361179556</v>
+        <v>0.08544409361179553</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06670623868613132</v>
+        <v>0.06592744942144681</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07872848379117263</v>
+        <v>0.07707380203792968</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08335161893581522</v>
+        <v>0.08434513625476105</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07739449854276674</v>
+        <v>0.07762392035832197</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07343076164983572</v>
+        <v>0.07431539782587862</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07109691161738906</v>
+        <v>0.07140266166987179</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0745134140554085</v>
+        <v>0.07478362567588512</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07890582724480741</v>
+        <v>0.07856558171309563</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.08029176399350695</v>
+        <v>0.08016400604683412</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08537780398129409</v>
+        <v>0.08489795656720989</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09722985943549743</v>
+        <v>0.09681875621243795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.102008394792297</v>
+        <v>0.1028045011550224</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09576642422627944</v>
+        <v>0.09658572317982968</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09389707057033511</v>
+        <v>0.09421769906479904</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0845652904753893</v>
+        <v>0.08486219714060246</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08754794318881222</v>
+        <v>0.08769236859867235</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0926550157400312</v>
+        <v>0.09308475615842204</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.09189800136500159</v>
+        <v>0.09142978568033808</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5735</v>
+        <v>6377</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13613</v>
+        <v>13200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13177</v>
+        <v>13692</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26338</v>
+        <v>27187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5175</v>
+        <v>5571</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11484</v>
+        <v>11451</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8725</v>
+        <v>8620</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18163</v>
+        <v>18501</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13645</v>
+        <v>14466</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26987</v>
+        <v>27809</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25980</v>
+        <v>26244</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>49232</v>
+        <v>49013</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19340</v>
+        <v>18697</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32952</v>
+        <v>31639</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31232</v>
+        <v>32052</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47034</v>
+        <v>46944</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18146</v>
+        <v>20026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28799</v>
+        <v>28718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24747</v>
+        <v>24060</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32107</v>
+        <v>32047</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31557</v>
+        <v>32334</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53640</v>
+        <v>54461</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>49802</v>
+        <v>50572</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>72411</v>
+        <v>73073</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16565</v>
+        <v>16713</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24632</v>
+        <v>25621</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27344</v>
+        <v>27589</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29844</v>
+        <v>30660</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32346</v>
+        <v>32404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43497</v>
+        <v>44900</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>44056</v>
+        <v>42605</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35334</v>
+        <v>36337</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>54777</v>
+        <v>54527</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>74442</v>
+        <v>75218</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>77424</v>
+        <v>78018</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>72689</v>
+        <v>71043</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37282</v>
+        <v>38147</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49438</v>
+        <v>49883</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51189</v>
+        <v>51610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>56204</v>
+        <v>57884</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>59612</v>
+        <v>58437</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>73743</v>
+        <v>74644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>71728</v>
+        <v>71906</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>55711</v>
+        <v>57820</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>88762</v>
+        <v>85833</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>112352</v>
+        <v>115270</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>114402</v>
+        <v>114699</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>105081</v>
+        <v>105100</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11377</v>
+        <v>10748</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22261</v>
+        <v>22866</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8560</v>
+        <v>8986</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>25859</v>
+        <v>25894</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15117</v>
+        <v>15339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24513</v>
+        <v>24726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15641</v>
+        <v>16382</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25262</v>
+        <v>25846</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>30817</v>
+        <v>30259</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>53591</v>
+        <v>53356</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>27445</v>
+        <v>28809</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>54952</v>
+        <v>54944</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27393</v>
+        <v>27164</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44145</v>
+        <v>45438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22257</v>
+        <v>22971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42960</v>
+        <v>43659</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32995</v>
+        <v>34084</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>47579</v>
+        <v>48365</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35988</v>
+        <v>35223</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>41453</v>
+        <v>42854</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55484</v>
+        <v>53905</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>85199</v>
+        <v>86395</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50643</v>
+        <v>52892</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>79313</v>
+        <v>79502</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10076</v>
+        <v>9809</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14628</v>
+        <v>15628</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32611</v>
+        <v>33150</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24013</v>
+        <v>23307</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12611</v>
+        <v>13069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23461</v>
+        <v>22976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17417</v>
+        <v>16825</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>22173</v>
+        <v>22045</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>26428</v>
+        <v>26381</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>43166</v>
+        <v>43850</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>55091</v>
+        <v>56508</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>50437</v>
+        <v>48969</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25700</v>
+        <v>24805</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33970</v>
+        <v>33610</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58416</v>
+        <v>57340</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46275</v>
+        <v>44590</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29777</v>
+        <v>29632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46194</v>
+        <v>45604</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37303</v>
+        <v>37669</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37110</v>
+        <v>37235</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48023</v>
+        <v>48227</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>74479</v>
+        <v>72674</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>87949</v>
+        <v>87589</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>75733</v>
+        <v>75524</v>
       </c>
     </row>
     <row r="20">
@@ -2871,37 +2871,37 @@
         <v>6177</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11633</v>
+        <v>12291</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7873</v>
+        <v>7298</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11359</v>
+        <v>11689</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12200</v>
+        <v>12938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18897</v>
+        <v>19527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12354</v>
+        <v>11847</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22431</v>
+        <v>22814</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>21869</v>
+        <v>21771</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>35079</v>
+        <v>35924</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>23719</v>
+        <v>23141</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>37239</v>
+        <v>36667</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18159</v>
+        <v>18651</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29232</v>
+        <v>29852</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21518</v>
+        <v>20979</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23279</v>
+        <v>23379</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30218</v>
+        <v>31126</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39455</v>
+        <v>38850</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29773</v>
+        <v>29635</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>36006</v>
+        <v>35377</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>45637</v>
+        <v>42834</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>61949</v>
+        <v>60720</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>46408</v>
+        <v>45488</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>54625</v>
+        <v>54971</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7875</v>
+        <v>7585</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13238</v>
+        <v>12990</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11592</v>
+        <v>11231</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29456</v>
+        <v>30100</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6231</v>
+        <v>6118</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19053</v>
+        <v>19681</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>11838</v>
+        <v>12216</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20832</v>
+        <v>20578</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>17212</v>
+        <v>16705</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>36023</v>
+        <v>36390</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>26227</v>
+        <v>27310</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>54554</v>
+        <v>54434</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22958</v>
+        <v>21346</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30218</v>
+        <v>30934</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26992</v>
+        <v>27729</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>46843</v>
+        <v>47754</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19913</v>
+        <v>20331</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>38933</v>
+        <v>42275</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>29770</v>
+        <v>31026</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>34543</v>
+        <v>34418</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>36602</v>
+        <v>35949</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>62675</v>
+        <v>64927</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>50142</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>75056</v>
+        <v>76635</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>28441</v>
+        <v>29433</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>41272</v>
+        <v>39941</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>58199</v>
+        <v>60296</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>52597</v>
+        <v>53980</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>35779</v>
+        <v>36735</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>44990</v>
+        <v>45018</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>44028</v>
+        <v>45384</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>38860</v>
+        <v>40990</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>71812</v>
+        <v>72831</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>93849</v>
+        <v>92461</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>114142</v>
+        <v>112408</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>101264</v>
+        <v>99998</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>52701</v>
+        <v>52941</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>71071</v>
+        <v>71023</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>91346</v>
+        <v>94181</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>84850</v>
+        <v>87394</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>62776</v>
+        <v>61462</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>74593</v>
+        <v>76911</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>78499</v>
+        <v>78482</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>61482</v>
+        <v>63459</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>108585</v>
+        <v>108591</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>136386</v>
+        <v>136226</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>159198</v>
+        <v>159429</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>140136</v>
+        <v>138978</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>37586</v>
+        <v>37322</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>36147</v>
+        <v>36829</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>57805</v>
+        <v>59124</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>49308</v>
+        <v>49291</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>38542</v>
+        <v>38200</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>35801</v>
+        <v>35444</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>56462</v>
+        <v>57735</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>42399</v>
+        <v>42110</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>83893</v>
+        <v>82753</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>79408</v>
+        <v>78858</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>125402</v>
+        <v>125346</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>98075</v>
+        <v>97968</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>63963</v>
+        <v>63935</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>64137</v>
+        <v>67208</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>91413</v>
+        <v>91995</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>75856</v>
+        <v>77689</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>67535</v>
+        <v>66916</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>63239</v>
+        <v>63811</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>92659</v>
+        <v>95317</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>65689</v>
+        <v>63994</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>124171</v>
+        <v>122276</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>121405</v>
+        <v>119231</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>174404</v>
+        <v>172837</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>132844</v>
+        <v>131768</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>228588</v>
+        <v>225919</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>267232</v>
+        <v>261615</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>293804</v>
+        <v>297306</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>275145</v>
+        <v>275961</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>260278</v>
+        <v>263414</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>265265</v>
+        <v>266405</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>520243</v>
+        <v>522130</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>547519</v>
+        <v>545158</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>582589</v>
+        <v>581662</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>292571</v>
+        <v>290927</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>330032</v>
+        <v>328637</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>359566</v>
+        <v>362373</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>340459</v>
+        <v>343372</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>332822</v>
+        <v>333959</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>315516</v>
+        <v>316623</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>611249</v>
+        <v>612257</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>642923</v>
+        <v>645905</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>666803</v>
+        <v>663405</v>
       </c>
     </row>
     <row r="40">
